--- a/note/数据类型.xlsx
+++ b/note/数据类型.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3504FC41-3BAA-4183-AD58-FB6385703F41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434F3A1C-FAC9-4BFE-BDCB-B31EA285EF23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{925A2BB6-A94B-4165-9568-3FF1F44FD109}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>字符串</t>
   </si>
@@ -60,15 +60,9 @@
     <t>判断方法</t>
   </si>
   <si>
-    <t>type(  )</t>
-  </si>
-  <si>
     <t>返回</t>
   </si>
   <si>
-    <t>isinstance( , )</t>
-  </si>
-  <si>
     <t>前后一致为true  不一致为false</t>
   </si>
   <si>
@@ -159,9 +153,6 @@
     <t>''  '''/"""  """</t>
   </si>
   <si>
-    <t xml:space="preserve"> '/'' ''</t>
-  </si>
-  <si>
     <t>普通字符串前加"r"</t>
   </si>
   <si>
@@ -241,6 +232,21 @@
   </si>
   <si>
     <t>s.index(x[, start[, end]])</t>
+  </si>
+  <si>
+    <t>元组</t>
+  </si>
+  <si>
+    <t>'/""</t>
+  </si>
+  <si>
+    <t>type(  )/isinstance( , )</t>
+  </si>
+  <si>
+    <t>[  ]</t>
+  </si>
+  <si>
+    <t>(  )</t>
   </si>
 </sst>
 </file>
@@ -277,7 +283,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -373,17 +379,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -480,57 +475,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -545,22 +537,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -584,12 +588,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4359275</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4810125" cy="3743325"/>
+    <xdr:ext cx="5127625" cy="3587751"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
@@ -618,8 +622,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6696075" y="1174749"/>
-          <a:ext cx="4810125" cy="3743325"/>
+          <a:off x="6911975" y="1365249"/>
+          <a:ext cx="5127625" cy="3587751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -708,7 +712,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1492250</xdr:colOff>
+      <xdr:colOff>1225550</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
@@ -1123,15 +1127,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEB7C1B-0305-4E3A-8183-07EA7CBE9B9E}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="33.453125" style="6" customWidth="1"/>
     <col min="2" max="2" width="63" style="6" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.6328125" style="6" customWidth="1"/>
     <col min="4" max="4" width="31.81640625" style="6" customWidth="1"/>
     <col min="5" max="5" width="23.453125" style="6" customWidth="1"/>
     <col min="6" max="16384" width="9.1796875" style="6"/>
@@ -1148,10 +1152,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -1161,14 +1165,14 @@
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>33</v>
+      <c r="E2" s="21" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1178,26 +1182,22 @@
       <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="21"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13" t="s">
-        <v>42</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
@@ -1206,567 +1206,573 @@
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="12"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="12"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="12"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="12"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="12"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="12"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" s="24"/>
-      <c r="C28" s="26" t="s">
-        <v>37</v>
+      <c r="C28" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="24"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="12"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="12"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="12"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="12"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="12"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="12"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="12"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="12"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="12"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="8"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="12"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="8"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="8"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="12"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="8"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="12"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="12"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="8"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="12"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="12"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="8"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="12"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="12"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="8"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="12"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="12"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="8"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="12"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="12"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="8"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="12"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
       <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="12"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="12"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="12"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="8"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="12"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="11"/>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="12"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="8"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="12"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="11"/>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="12"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="8"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="12"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11"/>
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="12"/>
+      <c r="A49" s="11"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="12"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="11"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="12"/>
+      <c r="A50" s="11"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="12"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="11"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="12"/>
+      <c r="A51" s="11"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="12"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="11"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="12"/>
+      <c r="A52" s="11"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="12"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="11"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="12"/>
+      <c r="A53" s="11"/>
       <c r="B53" s="8"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="12"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="11"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="12"/>
+      <c r="A54" s="11"/>
       <c r="B54" s="8"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="12"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="11"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="16"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A56" s="23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B56" s="24"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="12"/>
+      <c r="A57" s="11"/>
       <c r="B57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="12"/>
+      <c r="A58" s="11"/>
       <c r="B58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="12"/>
+      <c r="A59" s="11"/>
       <c r="B59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="12"/>
+      <c r="A60" s="11"/>
       <c r="B60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="12"/>
+      <c r="A61" s="11"/>
       <c r="B61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="12"/>
+      <c r="A62" s="11"/>
       <c r="B62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="12"/>
+      <c r="A63" s="11"/>
       <c r="B63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="12"/>
+      <c r="A64" s="11"/>
       <c r="B64" s="8"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65" s="12"/>
+      <c r="A65" s="11"/>
       <c r="B65" s="8"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66" s="12"/>
+      <c r="A66" s="11"/>
       <c r="B66" s="8"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" s="12"/>
+      <c r="A67" s="11"/>
       <c r="B67" s="8"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" s="12"/>
+      <c r="A68" s="11"/>
       <c r="B68" s="8"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" s="12"/>
+      <c r="A69" s="11"/>
       <c r="B69" s="8"/>
     </row>
     <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="12"/>
+      <c r="A70" s="11"/>
       <c r="B70" s="8"/>
     </row>
     <row r="71" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A71" s="23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="23"/>
@@ -1778,215 +1784,209 @@
       <c r="I71" s="24"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B74" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" s="12" t="s">
+      <c r="B75" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B76" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" s="12" t="s">
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="B77" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" s="12" t="s">
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B75" s="21" t="s">
+      <c r="B78" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" s="12" t="s">
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B76" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" s="12" t="s">
+      <c r="B80" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B77" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" s="12" t="s">
+      <c r="B81" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B79" s="21" t="s">
+      <c r="B82" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="21"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" s="12" t="s">
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+    </row>
+    <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="B83" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="21"/>
-      <c r="I80" s="21"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A81" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B81" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B82" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="21"/>
-    </row>
-    <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B83" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
     </row>
     <row r="84" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="17"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A20:B20"/>
+  <mergeCells count="20">
     <mergeCell ref="B83:I83"/>
     <mergeCell ref="B72:I72"/>
     <mergeCell ref="A71:I71"/>
@@ -2000,6 +2000,13 @@
     <mergeCell ref="B74:I74"/>
     <mergeCell ref="B75:I75"/>
     <mergeCell ref="B76:I76"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D3:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/note/数据类型.xlsx
+++ b/note/数据类型.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434F3A1C-FAC9-4BFE-BDCB-B31EA285EF23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E14810-620D-440E-BC68-DE3CFB1468A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{925A2BB6-A94B-4165-9568-3FF1F44FD109}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
   <si>
     <t>字符串</t>
   </si>
@@ -247,6 +241,24 @@
   </si>
   <si>
     <t>(  )</t>
+  </si>
+  <si>
+    <t>字典</t>
+  </si>
+  <si>
+    <t>{  }</t>
+  </si>
+  <si>
+    <t>s.keys()</t>
+  </si>
+  <si>
+    <t>返回s字典里的所有键</t>
+  </si>
+  <si>
+    <t>s.values()</t>
+  </si>
+  <si>
+    <t>返回s字典里的所有值</t>
   </si>
 </sst>
 </file>
@@ -475,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -513,16 +525,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -537,35 +543,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,7 +620,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>174625</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>63499</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5127625" cy="3587751"/>
@@ -646,13 +676,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3952876</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -707,13 +737,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1225550</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -768,14 +798,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3876675</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1125,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEB7C1B-0305-4E3A-8183-07EA7CBE9B9E}">
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B70" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1165,13 +1195,13 @@
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="31" t="s">
         <v>69</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="29" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1182,11 +1212,11 @@
       <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
@@ -1195,8 +1225,8 @@
       <c r="B4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1206,8 +1236,8 @@
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="12" t="s">
         <v>68</v>
       </c>
@@ -1216,797 +1246,801 @@
       <c r="A6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="20" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="15" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="19" t="s">
         <v>71</v>
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B13" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B14" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B15" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B16" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B17" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="17" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="26" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="24"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="24"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B24" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="11"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="24"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="11"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="24"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="24"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="24"/>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="23" t="s">
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="11"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="11"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
       <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="11"/>
-      <c r="B31" s="8"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="11"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
       <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="11"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
       <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="11"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="11"/>
-      <c r="B35" s="8"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="11"/>
-      <c r="B36" s="8"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
       <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="11"/>
-      <c r="B37" s="8"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
       <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="11"/>
-      <c r="B38" s="8"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="11"/>
-      <c r="B39" s="8"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="11"/>
-      <c r="B40" s="8"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="11"/>
-      <c r="B41" s="8"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="11"/>
-      <c r="B42" s="8"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="8"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="11"/>
-      <c r="B43" s="8"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="19"/>
       <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="8"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="19"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="11"/>
-      <c r="B44" s="8"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="8"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="19"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="11"/>
-      <c r="B45" s="8"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="8"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="19"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="11"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="10"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="8"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="19"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="11"/>
-      <c r="B47" s="8"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="10"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="8"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="19"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="11"/>
-      <c r="B48" s="8"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="10"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="8"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="19"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="11"/>
-      <c r="B49" s="8"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="10"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="8"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="19"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="11"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="10"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="8"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="19"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="11"/>
-      <c r="B51" s="8"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="10"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="8"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="19"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="11"/>
-      <c r="B52" s="8"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="19"/>
       <c r="C52" s="10"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="8"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="19"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="11"/>
-      <c r="B53" s="8"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="10"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="8"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="19"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="11"/>
-      <c r="B54" s="8"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="10"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="8"/>
-    </row>
-    <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="13"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="15"/>
-    </row>
-    <row r="56" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="23" t="s">
+      <c r="D54" s="24"/>
+      <c r="E54" s="19"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="24"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="19"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="24"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="19"/>
+    </row>
+    <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="25"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="14"/>
+    </row>
+    <row r="58" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B56" s="24"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="11"/>
-      <c r="B57" s="8"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="11"/>
-      <c r="B58" s="8"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="28"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="11"/>
-      <c r="B59" s="8"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="11"/>
-      <c r="B60" s="8"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="11"/>
-      <c r="B61" s="8"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="24"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="24"/>
+      <c r="B61" s="19"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="11"/>
-      <c r="B62" s="8"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="19"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="11"/>
-      <c r="B63" s="8"/>
+      <c r="A63" s="24"/>
+      <c r="B63" s="19"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="11"/>
-      <c r="B64" s="8"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="19"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65" s="11"/>
-      <c r="B65" s="8"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="19"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66" s="11"/>
-      <c r="B66" s="8"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="19"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" s="11"/>
-      <c r="B67" s="8"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="19"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" s="11"/>
-      <c r="B68" s="8"/>
+      <c r="A68" s="24"/>
+      <c r="B68" s="19"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" s="11"/>
-      <c r="B69" s="8"/>
-    </row>
-    <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="11"/>
-      <c r="B70" s="8"/>
-    </row>
-    <row r="71" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="23" t="s">
+      <c r="A69" s="24"/>
+      <c r="B69" s="19"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="24"/>
+      <c r="B70" s="19"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="24"/>
+      <c r="B71" s="19"/>
+    </row>
+    <row r="72" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="24"/>
+      <c r="B72" s="19"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+    </row>
+    <row r="73" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="24"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72" s="19" t="s">
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B72" s="27" t="s">
+      <c r="B74" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" s="11" t="s">
+      <c r="C74" s="17"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B75" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" s="11" t="s">
+      <c r="C75" s="24"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B76" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" s="11" t="s">
+      <c r="C76" s="24"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B77" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" s="11" t="s">
+      <c r="C77" s="24"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B78" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="22"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" s="11" t="s">
+      <c r="C78" s="24"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B79" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" s="11" t="s">
+      <c r="C79" s="24"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B80" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" s="11" t="s">
+      <c r="C80" s="24"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B81" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" s="11" t="s">
+      <c r="C81" s="24"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B82" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A81" s="11" t="s">
+      <c r="C82" s="24"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="B83" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82" s="11" t="s">
+      <c r="C83" s="24"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B84" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
-    </row>
-    <row r="83" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="11" t="s">
+      <c r="C84" s="24"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+    </row>
+    <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B85" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-    </row>
-    <row r="84" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="10"/>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
     </row>
+    <row r="86" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B83:I83"/>
-    <mergeCell ref="B72:I72"/>
-    <mergeCell ref="A71:I71"/>
-    <mergeCell ref="B77:I77"/>
-    <mergeCell ref="B78:I78"/>
-    <mergeCell ref="B79:I79"/>
-    <mergeCell ref="B80:I80"/>
-    <mergeCell ref="B82:I82"/>
-    <mergeCell ref="B81:I81"/>
-    <mergeCell ref="B73:I73"/>
-    <mergeCell ref="B74:I74"/>
-    <mergeCell ref="B75:I75"/>
-    <mergeCell ref="B76:I76"/>
+  <mergeCells count="6">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D3:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/note/数据类型.xlsx
+++ b/note/数据类型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E14810-620D-440E-BC68-DE3CFB1468A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CD7D40-9B4E-46D8-A109-C97497889A18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{925A2BB6-A94B-4165-9568-3FF1F44FD109}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{925A2BB6-A94B-4165-9568-3FF1F44FD109}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
   <si>
     <t>字符串</t>
   </si>
@@ -259,6 +259,24 @@
   </si>
   <si>
     <t>返回s字典里的所有值</t>
+  </si>
+  <si>
+    <t>函数</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>s(x,*y)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 可接受任意数量的实参</t>
+  </si>
+  <si>
+    <t>s.(x,**y)</t>
+  </si>
+  <si>
+    <t>可接受任意数量的关键字实参（以表格形式呈现）</t>
   </si>
 </sst>
 </file>
@@ -295,7 +313,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -483,11 +501,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -510,9 +539,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -534,9 +560,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,12 +569,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -564,38 +596,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,11 +657,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>174625</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>63499</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5127625" cy="3587751"/>
+    <xdr:ext cx="6334125" cy="3952875"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
@@ -652,8 +690,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6911975" y="1365249"/>
-          <a:ext cx="5127625" cy="3587751"/>
+          <a:off x="6477000" y="1762125"/>
+          <a:ext cx="6334125" cy="3952875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -676,13 +714,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3952876</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -736,14 +774,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:colOff>44449</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1225550</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:colOff>1485899</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -774,8 +812,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6781800" y="5238750"/>
-          <a:ext cx="4914900" cy="4892675"/>
+          <a:off x="6473824" y="5994400"/>
+          <a:ext cx="6365875" cy="5057775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -798,14 +836,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3876675</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1155,23 +1193,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEB7C1B-0305-4E3A-8183-07EA7CBE9B9E}">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B70" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.453125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="63" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.6328125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="31.81640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.453125" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="6"/>
+    <col min="3" max="3" width="21.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1188,859 +1226,920 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="26"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E3" s="31"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="33"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="12" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="18" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="19" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35" t="s">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="24" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="24" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="24" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="24" t="s">
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="24" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B15" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="24" t="s">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B16" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="24" t="s">
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="24" t="s">
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B18" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="19"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="19"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="15" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="24"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="24"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="23" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="24"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="24" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B24" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="24"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="24" t="s">
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B25" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="24"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="19"/>
-      <c r="F25" s="24"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
       <c r="E26" s="19"/>
-      <c r="F26" s="24"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="19"/>
-      <c r="F27" s="24"/>
-      <c r="J27" s="11"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="11"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F27" s="18"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="25"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="20" t="s">
+      <c r="D29" s="25"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="26"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="24"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="11"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="24"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
       <c r="B32" s="19"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="24"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="25"/>
       <c r="E32" s="19"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="11"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="24"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
       <c r="B33" s="19"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="24"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="25"/>
       <c r="E33" s="19"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="11"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="24"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
       <c r="B34" s="19"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="24"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="25"/>
       <c r="E34" s="19"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="11"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="24"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
       <c r="B35" s="19"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="24"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="25"/>
       <c r="E35" s="19"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="11"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="24"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
       <c r="B36" s="19"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="24"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="25"/>
       <c r="E36" s="19"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="11"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="24"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
       <c r="B37" s="19"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="24"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="25"/>
       <c r="E37" s="19"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="11"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="24"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
       <c r="B38" s="19"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="24"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="25"/>
       <c r="E38" s="19"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="11"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="24"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
       <c r="B39" s="19"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="24"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="25"/>
       <c r="E39" s="19"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="11"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="24"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
       <c r="B40" s="19"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="24"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="19"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="11"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="24"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
       <c r="B41" s="19"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="24"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="25"/>
       <c r="E41" s="19"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="11"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="24"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
       <c r="B42" s="19"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="24"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="25"/>
       <c r="E42" s="19"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="24"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
       <c r="B43" s="19"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="24"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="25"/>
       <c r="E43" s="19"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="24"/>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
       <c r="B44" s="19"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="24"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="25"/>
       <c r="E44" s="19"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="24"/>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
       <c r="B45" s="19"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="24"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="25"/>
       <c r="E45" s="19"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="24"/>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
       <c r="B46" s="19"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="24"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="25"/>
       <c r="E46" s="19"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="24"/>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
       <c r="B47" s="19"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="24"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="25"/>
       <c r="E47" s="19"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="24"/>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="25"/>
       <c r="B48" s="19"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="24"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="25"/>
       <c r="E48" s="19"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="24"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
       <c r="B49" s="19"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="24"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="25"/>
       <c r="E49" s="19"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="24"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="24"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="25"/>
       <c r="E50" s="19"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="24"/>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="25"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="24"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="25"/>
       <c r="E51" s="19"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="24"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="25"/>
       <c r="B52" s="19"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="24"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="25"/>
       <c r="E52" s="19"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="24"/>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="25"/>
       <c r="B53" s="19"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="24"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="25"/>
       <c r="E53" s="19"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="24"/>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
       <c r="B54" s="19"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="24"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="25"/>
       <c r="E54" s="19"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="24"/>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
       <c r="B55" s="19"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="24"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="25"/>
       <c r="E55" s="19"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="24"/>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="25"/>
       <c r="B56" s="19"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="24"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="25"/>
       <c r="E56" s="19"/>
     </row>
-    <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="13"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="9"/>
       <c r="D57" s="25"/>
-      <c r="E57" s="14"/>
-    </row>
-    <row r="58" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="27" t="s">
+      <c r="E57" s="19"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="13"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="28"/>
-      <c r="C58" s="30" t="s">
+      <c r="B59" s="21"/>
+      <c r="C59" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="D58" s="28"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="24"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="10" t="s">
+      <c r="D59" s="38"/>
+      <c r="E59" s="28"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="25"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D60" s="19" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="24"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="13" t="s">
+      <c r="E60" s="28"/>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="25"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D61" s="13" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="24"/>
-      <c r="B61" s="19"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="24"/>
+      <c r="E61" s="28"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="25"/>
       <c r="B62" s="19"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="24"/>
+      <c r="C62" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="38"/>
+      <c r="E62" s="28"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="25"/>
       <c r="B63" s="19"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="24"/>
+      <c r="C63" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" s="28"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="25"/>
       <c r="B64" s="19"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65" s="24"/>
+      <c r="C64" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E64" s="28"/>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="25"/>
       <c r="B65" s="19"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66" s="24"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="25"/>
       <c r="B66" s="19"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" s="24"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="25"/>
       <c r="B67" s="19"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" s="24"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="25"/>
       <c r="B68" s="19"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" s="24"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="25"/>
       <c r="B69" s="19"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70" s="24"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="25"/>
       <c r="B70" s="19"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71" s="24"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="25"/>
       <c r="B71" s="19"/>
-    </row>
-    <row r="72" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="24"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="25"/>
       <c r="B72" s="19"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-    </row>
-    <row r="73" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="20" t="s">
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="25"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" s="17" t="s">
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B75" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C74" s="17"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" s="24" t="s">
+      <c r="C75" s="15"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B75" s="24" t="s">
+      <c r="B76" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C75" s="24"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" s="24" t="s">
+      <c r="C76" s="25"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B76" s="24" t="s">
+      <c r="B77" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" s="24" t="s">
+      <c r="C77" s="25"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="B78" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C77" s="24"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" s="24" t="s">
+      <c r="C78" s="25"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="B79" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" s="24" t="s">
+      <c r="C79" s="25"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="B80" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C79" s="24"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" s="24" t="s">
+      <c r="C80" s="25"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B80" s="24" t="s">
+      <c r="B81" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C80" s="24"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A81" s="24" t="s">
+      <c r="C81" s="25"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B81" s="24" t="s">
+      <c r="B82" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C81" s="24"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="24"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82" s="24" t="s">
+      <c r="C82" s="25"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B82" s="24" t="s">
+      <c r="B83" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C82" s="24"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83" s="24" t="s">
+      <c r="C83" s="25"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B83" s="24" t="s">
+      <c r="B84" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C83" s="24"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A84" s="24" t="s">
+      <c r="C84" s="25"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B84" s="24" t="s">
+      <c r="B85" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C84" s="24"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
-    </row>
-    <row r="85" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="25" t="s">
+      <c r="C85" s="25"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B85" s="25" t="s">
+      <c r="B86" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C85" s="25"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
-    </row>
-    <row r="86" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="25"/>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C62:D62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/note/数据类型.xlsx
+++ b/note/数据类型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CD7D40-9B4E-46D8-A109-C97497889A18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B519272-4930-47AD-ADF0-55D2B9A9D017}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{925A2BB6-A94B-4165-9568-3FF1F44FD109}"/>
+    <workbookView minimized="1" xWindow="5085" yWindow="5190" windowWidth="21600" windowHeight="12735" xr2:uid="{925A2BB6-A94B-4165-9568-3FF1F44FD109}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -605,6 +605,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,15 +633,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -657,9 +657,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6334125" cy="3952875"/>
     <xdr:pic>
@@ -690,7 +690,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6477000" y="1762125"/>
+          <a:off x="6496050" y="1743075"/>
           <a:ext cx="6334125" cy="3952875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1195,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEB7C1B-0305-4E3A-8183-07EA7CBE9B9E}">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,13 +1233,13 @@
       <c r="B2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="35" t="s">
         <v>69</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="33" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1250,11 +1250,11 @@
       <c r="B3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="35" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="31"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -1263,8 +1263,8 @@
       <c r="B4" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1274,8 +1274,8 @@
       <c r="B5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="11" t="s">
         <v>68</v>
       </c>
@@ -1285,8 +1285,8 @@
         <v>42</v>
       </c>
       <c r="B6" s="25"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="16" t="s">
         <v>70</v>
       </c>
@@ -1296,8 +1296,8 @@
         <v>67</v>
       </c>
       <c r="B7" s="29"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="17" t="s">
         <v>71</v>
       </c>
@@ -1308,8 +1308,8 @@
         <v>72</v>
       </c>
       <c r="B8" s="25"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="19" t="s">
         <v>73</v>
       </c>
@@ -1321,15 +1321,15 @@
       <c r="B9" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="23"/>
       <c r="D10" s="20"/>
       <c r="E10" s="21"/>
@@ -1549,14 +1549,14 @@
       <c r="J30" s="10"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="23" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="20"/>
+      <c r="D31" s="32"/>
       <c r="E31" s="21"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
@@ -1808,14 +1808,14 @@
       <c r="E58" s="13"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="37" t="s">
+      <c r="B59" s="31"/>
+      <c r="C59" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D59" s="38"/>
+      <c r="D59" s="31"/>
       <c r="E59" s="28"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1843,10 +1843,10 @@
     <row r="62" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
       <c r="B62" s="19"/>
-      <c r="C62" s="37" t="s">
+      <c r="C62" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D62" s="38"/>
+      <c r="D62" s="31"/>
       <c r="E62" s="28"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2133,13 +2133,16 @@
     </row>
     <row r="87" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A10:B10"/>
+  <mergeCells count="9">
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="D3:D9"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C62:D62"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
